--- a/data/trans_orig/P64S_2023_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P64S_2023_R-Edad-trans_orig.xlsx
@@ -838,16 +838,16 @@
         <v>1202</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20034</v>
+        <v>18114</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05461098126289715</v>
+        <v>0.05461098126289714</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0114674982557759</v>
+        <v>0.0114710968239261</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1911282450829418</v>
+        <v>0.1728060970684439</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -856,19 +856,19 @@
         <v>5653</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1510</v>
+        <v>1579</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14172</v>
+        <v>14792</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.06162231838602199</v>
+        <v>0.061622318386022</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01646048107368836</v>
+        <v>0.01720865940520213</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1544724168859357</v>
+        <v>0.1612344040686444</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -877,19 +877,19 @@
         <v>11378</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5129</v>
+        <v>4701</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24852</v>
+        <v>26299</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05788340791768783</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02609487870996896</v>
+        <v>0.02391488093851719</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1264330051989638</v>
+        <v>0.1337925396524849</v>
       </c>
     </row>
     <row r="7">
@@ -906,19 +906,19 @@
         <v>5554</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1327</v>
+        <v>1347</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15229</v>
+        <v>16225</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05298768257329686</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01266210385108855</v>
+        <v>0.01285503548043943</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1452853918246526</v>
+        <v>0.1547915071973045</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -927,19 +927,19 @@
         <v>4606</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1240</v>
+        <v>1213</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13025</v>
+        <v>12553</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05020918066567804</v>
+        <v>0.05020918066567805</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01351605199700954</v>
+        <v>0.01321792245286413</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1419778903698756</v>
+        <v>0.1368274763194486</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -948,19 +948,19 @@
         <v>10161</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4084</v>
+        <v>3882</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21826</v>
+        <v>20875</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05169086236008962</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02077698606130356</v>
+        <v>0.01975017653004929</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1110384792117375</v>
+        <v>0.1061979018644506</v>
       </c>
     </row>
     <row r="8">
@@ -1168,16 +1168,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11152</v>
+        <v>17290</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.02619729965345887</v>
+        <v>0.02619729965345886</v>
       </c>
       <c r="H12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1063863690672367</v>
+        <v>0.1649488298043047</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10978</v>
+        <v>11707</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.03640461621584524</v>
+        <v>0.03640461621584525</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1196595122626656</v>
+        <v>0.1276106031985202</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -1207,19 +1207,19 @@
         <v>6086</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1485</v>
+        <v>1544</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18328</v>
+        <v>17756</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03096139731501197</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007554085104221609</v>
+        <v>0.007853378079694263</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09324006895581195</v>
+        <v>0.09033098021446705</v>
       </c>
     </row>
     <row r="13">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15252</v>
+        <v>16315</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04003671986281274</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1455028525282369</v>
+        <v>0.1556425652116574</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11155</v>
+        <v>13308</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03654150429020091</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1215862115067171</v>
+        <v>0.1450601255239534</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -1325,19 +1325,19 @@
         <v>7549</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2698</v>
+        <v>1762</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19724</v>
+        <v>19613</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03840538529663846</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01372433904192737</v>
+        <v>0.008963048706404408</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1003431511200023</v>
+        <v>0.09978093938842357</v>
       </c>
     </row>
     <row r="15">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9374</v>
+        <v>11008</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02466258704846984</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.102177028318672</v>
+        <v>0.1199897689376507</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>15202</v>
+        <v>11251</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01151085817387404</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07733984360839628</v>
+        <v>0.05723691016594434</v>
       </c>
     </row>
     <row r="16">
@@ -1417,19 +1417,19 @@
         <v>7746</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2135</v>
+        <v>1957</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18277</v>
+        <v>17954</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07389915984693747</v>
+        <v>0.07389915984693746</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02037095352363947</v>
+        <v>0.01866633529668604</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1743686661800452</v>
+        <v>0.1712859711978968</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1438,19 +1438,19 @@
         <v>11566</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4978</v>
+        <v>5067</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21879</v>
+        <v>22632</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1260668700130723</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0542600295989033</v>
+        <v>0.05523116634697034</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2384865274168787</v>
+        <v>0.2466872990710074</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1459,19 +1459,19 @@
         <v>19312</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10064</v>
+        <v>10105</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33143</v>
+        <v>33206</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0982475833029999</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05119929281498313</v>
+        <v>0.05140777283328518</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1686095319294475</v>
+        <v>0.1689301365288786</v>
       </c>
     </row>
     <row r="17">
@@ -1488,19 +1488,19 @@
         <v>44130</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29758</v>
+        <v>28927</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>60639</v>
+        <v>60451</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4209990133661458</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2838975654228904</v>
+        <v>0.2759644910563346</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5785026939396126</v>
+        <v>0.5767090656579211</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -1509,19 +1509,19 @@
         <v>40621</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27514</v>
+        <v>29147</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53283</v>
+        <v>53098</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4427645987327851</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2999058847764131</v>
+        <v>0.3177068232165287</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5807893387776203</v>
+        <v>0.5787665342450635</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -1530,19 +1530,19 @@
         <v>84750</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>65257</v>
+        <v>64317</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>106279</v>
+        <v>105209</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4311577434999449</v>
+        <v>0.4311577434999448</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3319904962614844</v>
+        <v>0.327208425770045</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5406857080540943</v>
+        <v>0.5352429387487785</v>
       </c>
     </row>
     <row r="18">
@@ -1559,19 +1559,19 @@
         <v>9327</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2324</v>
+        <v>2329</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26793</v>
+        <v>24114</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08898458610300396</v>
+        <v>0.08898458610300394</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02217298787984999</v>
+        <v>0.02222276143821731</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2556074532510788</v>
+        <v>0.2300448794661597</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1593,19 +1593,19 @@
         <v>9327</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2361</v>
+        <v>2398</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>26939</v>
+        <v>29139</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04745248939800269</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0120124677991701</v>
+        <v>0.01220076309742668</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1370500567637112</v>
+        <v>0.1482427640552848</v>
       </c>
     </row>
     <row r="19">
@@ -1622,19 +1622,19 @@
         <v>25397</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12705</v>
+        <v>12743</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42250</v>
+        <v>42419</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2422845573314472</v>
+        <v>0.2422845573314471</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1212095516448247</v>
+        <v>0.1215661751381619</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4030692667434606</v>
+        <v>0.4046794032509755</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -1643,19 +1643,19 @@
         <v>20342</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11777</v>
+        <v>11370</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34397</v>
+        <v>33467</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2217283246479266</v>
+        <v>0.2217283246479267</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.128369441732138</v>
+        <v>0.1239348701628815</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3749311714095419</v>
+        <v>0.3647873665187186</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -1664,19 +1664,19 @@
         <v>45739</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31369</v>
+        <v>30580</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65144</v>
+        <v>65556</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2326902727357507</v>
+        <v>0.2326902727357506</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1595853585383938</v>
+        <v>0.155571049435872</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3314112276515957</v>
+        <v>0.333510774301138</v>
       </c>
     </row>
     <row r="20">
@@ -1862,19 +1862,19 @@
         <v>11891</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6088</v>
+        <v>6103</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21028</v>
+        <v>22013</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03003458176302075</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0153770867525448</v>
+        <v>0.01541451272246915</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05311235776169065</v>
+        <v>0.05559958498524041</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>27</v>
@@ -1883,19 +1883,19 @@
         <v>25559</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17448</v>
+        <v>17318</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35696</v>
+        <v>36829</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.08111032652812961</v>
+        <v>0.08111032652812962</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0553693417144232</v>
+        <v>0.05495821057362988</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1132780125765332</v>
+        <v>0.1168730729954836</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>37</v>
@@ -1904,19 +1904,19 @@
         <v>37451</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>26920</v>
+        <v>26863</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>50613</v>
+        <v>50791</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.05267039413356722</v>
+        <v>0.0526703941335672</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03785944454640556</v>
+        <v>0.03778006754214758</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0711813132903038</v>
+        <v>0.07143140230502137</v>
       </c>
     </row>
     <row r="24">
@@ -1933,19 +1933,19 @@
         <v>9362</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3851</v>
+        <v>3824</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18408</v>
+        <v>18506</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02364627677840596</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.009726964553188232</v>
+        <v>0.009658749549512253</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04649378442487802</v>
+        <v>0.04674198201509337</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -1954,19 +1954,19 @@
         <v>14464</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7703</v>
+        <v>7910</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23568</v>
+        <v>23578</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04589885553647702</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02444396615035758</v>
+        <v>0.02510274467696336</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07479048978738712</v>
+        <v>0.07482323695975721</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>20</v>
@@ -1975,19 +1975,19 @@
         <v>23826</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14683</v>
+        <v>15222</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>35427</v>
+        <v>35799</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03350820243108089</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02064948787417022</v>
+        <v>0.02140804510187816</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04982366535962549</v>
+        <v>0.0503471980434072</v>
       </c>
     </row>
     <row r="25">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9803</v>
+        <v>11240</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004769707610564661</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02475891139927227</v>
+        <v>0.02838840514776655</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8853</v>
+        <v>11011</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.002655862633234764</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01245095390601504</v>
+        <v>0.01548529765638229</v>
       </c>
     </row>
     <row r="26">
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5389</v>
+        <v>4611</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.002297201695714707</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01361248034818602</v>
+        <v>0.01164530893518022</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4555</v>
+        <v>4232</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.001279124978465914</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.006406382484636952</v>
+        <v>0.005952182398176276</v>
       </c>
     </row>
     <row r="28">
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16949</v>
+        <v>13277</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006660363511644117</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04280908733729939</v>
+        <v>0.03353558062569777</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>17553</v>
+        <v>15344</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.003708615290202616</v>
+        <v>0.003708615290202615</v>
       </c>
       <c r="V28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02468702749074776</v>
+        <v>0.02158026622795659</v>
       </c>
     </row>
     <row r="29">
@@ -2240,19 +2240,19 @@
         <v>7192</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2261</v>
+        <v>2319</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18339</v>
+        <v>20944</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0181645108187701</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005711839082132183</v>
+        <v>0.005857453986204243</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0463202250891586</v>
+        <v>0.05289909091525739</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -2261,19 +2261,19 @@
         <v>5164</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1937</v>
+        <v>2086</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11238</v>
+        <v>12206</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01638784605534572</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006147565272817893</v>
+        <v>0.006620313706641905</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03566149041407795</v>
+        <v>0.03873527336115759</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -2282,19 +2282,19 @@
         <v>12356</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5770</v>
+        <v>5428</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>24450</v>
+        <v>23761</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.01737712630944605</v>
+        <v>0.01737712630944604</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.008114508839914504</v>
+        <v>0.007633905541992571</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03438556003382337</v>
+        <v>0.03341721110784111</v>
       </c>
     </row>
     <row r="30">
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9316</v>
+        <v>9208</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.004712616716523585</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0235288407330288</v>
+        <v>0.02325743863702606</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>10229</v>
+        <v>9659</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.008194292723528021</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03246099408983078</v>
+        <v>0.03065131586083005</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -2353,19 +2353,19 @@
         <v>4448</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>13413</v>
+        <v>13828</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.006255630238735078</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001582174701451193</v>
+        <v>0.001573527426408103</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01886338991129657</v>
+        <v>0.01944825619878427</v>
       </c>
     </row>
     <row r="31">
@@ -2382,19 +2382,19 @@
         <v>22934</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12198</v>
+        <v>11646</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>39447</v>
+        <v>37770</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05792587038486269</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03081019240764762</v>
+        <v>0.02941488607782441</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09963311564165835</v>
+        <v>0.09539702413466328</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>10</v>
@@ -2403,19 +2403,19 @@
         <v>10987</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5585</v>
+        <v>5341</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>20325</v>
+        <v>19763</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0348655503037142</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01772390449625665</v>
+        <v>0.0169501467963824</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06449928101405936</v>
+        <v>0.062715276093017</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>23</v>
@@ -2424,19 +2424,19 @@
         <v>33921</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>22318</v>
+        <v>22352</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>50463</v>
+        <v>52515</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04770596892356856</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03138720227131866</v>
+        <v>0.03143622881617568</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07097105978944755</v>
+        <v>0.07385618146539763</v>
       </c>
     </row>
     <row r="32">
@@ -2453,19 +2453,19 @@
         <v>3869</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10434</v>
+        <v>10477</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.009772561489897406</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003117797915125935</v>
+        <v>0.003100780757424825</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02635489954240262</v>
+        <v>0.02646286905868859</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -2474,19 +2474,19 @@
         <v>3871</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1078</v>
+        <v>1090</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11335</v>
+        <v>10652</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01228374004917398</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003420925775729227</v>
+        <v>0.003457529117857747</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03597079894945276</v>
+        <v>0.03380430107090047</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -2495,19 +2495,19 @@
         <v>7740</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2661</v>
+        <v>3593</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15736</v>
+        <v>16299</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01088546874084667</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0037428311803413</v>
+        <v>0.005052973403519431</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02213092092047154</v>
+        <v>0.02292255790288595</v>
       </c>
     </row>
     <row r="33">
@@ -2524,19 +2524,19 @@
         <v>13287</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>6472</v>
+        <v>6162</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>24207</v>
+        <v>23851</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03355999737768676</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0163468374666139</v>
+        <v>0.01556335769173014</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06114068922949235</v>
+        <v>0.06024219120746372</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>13</v>
@@ -2545,19 +2545,19 @@
         <v>14049</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>7993</v>
+        <v>8242</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>23548</v>
+        <v>23295</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.04458436426085444</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02536393946246051</v>
+        <v>0.02615386047260841</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07472592568065017</v>
+        <v>0.07392490366753307</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>22</v>
@@ -2566,19 +2566,19 @@
         <v>27336</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>16772</v>
+        <v>17637</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>40496</v>
+        <v>41873</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03844579006498049</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02358804148786567</v>
+        <v>0.02480400080968137</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05695351804664553</v>
+        <v>0.05889044251893118</v>
       </c>
     </row>
     <row r="34">
@@ -2595,19 +2595,19 @@
         <v>262148</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>236035</v>
+        <v>235012</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>284369</v>
+        <v>284132</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6621233603990317</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5961680860475151</v>
+        <v>0.5935854089576555</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7182474573945955</v>
+        <v>0.7176512536833611</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>147</v>
@@ -2616,19 +2616,19 @@
         <v>159594</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>141450</v>
+        <v>141978</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>177418</v>
+        <v>178963</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.506456972029543</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4488765644393339</v>
+        <v>0.450554591105662</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5630196241726115</v>
+        <v>0.5679221505352432</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>307</v>
@@ -2637,19 +2637,19 @@
         <v>421743</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>390139</v>
+        <v>387511</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>452041</v>
+        <v>448764</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.5931349359377316</v>
+        <v>0.5931349359377315</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5486874905417751</v>
+        <v>0.5449925269978687</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6357462314437902</v>
+        <v>0.6311370395417156</v>
       </c>
     </row>
     <row r="35">
@@ -2679,19 +2679,19 @@
         <v>4841</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1820</v>
+        <v>1799</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>11077</v>
+        <v>10694</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0153622607578475</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.005774071020935016</v>
+        <v>0.005709112581880454</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03515153232537092</v>
+        <v>0.03393584554383537</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -2700,19 +2700,19 @@
         <v>4841</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1822</v>
+        <v>1842</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>10600</v>
+        <v>10774</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.006808265913717876</v>
+        <v>0.006808265913717875</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.002561782386159059</v>
+        <v>0.002590801175353618</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01490757836724139</v>
+        <v>0.01515203992190271</v>
       </c>
     </row>
     <row r="36">
@@ -2729,19 +2729,19 @@
         <v>57936</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>42529</v>
+        <v>42852</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>77818</v>
+        <v>76803</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1463329514538776</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1074172565393084</v>
+        <v>0.1082338460789907</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1965498644035267</v>
+        <v>0.1939867055451109</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>71</v>
@@ -2750,19 +2750,19 @@
         <v>74008</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>59805</v>
+        <v>59008</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>91189</v>
+        <v>90607</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2348557917553865</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1897849939374971</v>
+        <v>0.1872573391384742</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2893797719215645</v>
+        <v>0.2875337214548117</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>111</v>
@@ -2771,19 +2771,19 @@
         <v>131944</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>109622</v>
+        <v>110121</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>155343</v>
+        <v>156935</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1855646144044224</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1541713050465649</v>
+        <v>0.1548728485595237</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2184730247567752</v>
+        <v>0.2207124280678595</v>
       </c>
     </row>
     <row r="37">
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>4688</v>
+        <v>5311</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.002343372074824029</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.0118092731828764</v>
+        <v>0.01337869159755177</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>5047</v>
+        <v>4677</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.000996595143097775</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.005406170226467648</v>
+        <v>0.005010352158847757</v>
       </c>
     </row>
     <row r="40">
@@ -2985,19 +2985,19 @@
         <v>33904</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>24681</v>
+        <v>23129</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>48468</v>
+        <v>47434</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.06319489746150672</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0460047544144839</v>
+        <v>0.04311119126328857</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.09034220551552956</v>
+        <v>0.08841535810219124</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>54</v>
@@ -3006,19 +3006,19 @@
         <v>32678</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>24641</v>
+        <v>24836</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>42577</v>
+        <v>41480</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.08231301701926637</v>
+        <v>0.08231301701926635</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06206868230049565</v>
+        <v>0.06255908806730252</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1072461602446129</v>
+        <v>0.1044828731756005</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>89</v>
@@ -3027,19 +3027,19 @@
         <v>66582</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>52328</v>
+        <v>54224</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>81760</v>
+        <v>83572</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.07132549921319678</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05605587723502868</v>
+        <v>0.05808682028186068</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08758530827378963</v>
+        <v>0.08952576311863858</v>
       </c>
     </row>
     <row r="41">
@@ -3056,19 +3056,19 @@
         <v>17214</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>10117</v>
+        <v>9926</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>26788</v>
+        <v>28244</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0320852046723047</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0188576886463786</v>
+        <v>0.01850180815214793</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.049930824293429</v>
+        <v>0.05264484332696987</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>12</v>
@@ -3077,19 +3077,19 @@
         <v>9659</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>5355</v>
+        <v>4847</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>16602</v>
+        <v>15867</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.02432967149922938</v>
+        <v>0.02432967149922937</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01348921565056073</v>
+        <v>0.01220883502517573</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04181790432677149</v>
+        <v>0.03996640672026505</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>27</v>
@@ -3098,19 +3098,19 @@
         <v>26872</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>17799</v>
+        <v>18614</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>38875</v>
+        <v>40076</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02878691210687804</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01906718707659862</v>
+        <v>0.01993991318595554</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04164420020937175</v>
+        <v>0.04293152897325161</v>
       </c>
     </row>
     <row r="42">
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>4034</v>
+        <v>4021</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.002026242841207989</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01016090802238397</v>
+        <v>0.01012838238445644</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4389</v>
+        <v>3903</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0008617256286269252</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.004701674305571017</v>
+        <v>0.00418119454363669</v>
       </c>
     </row>
     <row r="43">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>3878</v>
+        <v>4387</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.001692932503601188</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.009768271395641244</v>
+        <v>0.01105006433763639</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>3390</v>
+        <v>3583</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0007199745737381442</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.003631806915111814</v>
+        <v>0.003837889605585418</v>
       </c>
     </row>
     <row r="44">
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>6459</v>
+        <v>7473</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.003835737742826546</v>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01203994090416987</v>
+        <v>0.01392855994833423</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>7387</v>
+        <v>6523</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.002204465591994581</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.00791362020067077</v>
+        <v>0.006988019557397189</v>
       </c>
     </row>
     <row r="45">
@@ -3363,19 +3363,19 @@
         <v>11113</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>5974</v>
+        <v>5406</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>21038</v>
+        <v>20615</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02071442644170027</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01113442597016422</v>
+        <v>0.01007727461460172</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03921361958161076</v>
+        <v>0.03842457693728067</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>8</v>
@@ -3384,19 +3384,19 @@
         <v>6697</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2614</v>
+        <v>2651</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>12619</v>
+        <v>11940</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01686944968297837</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.006585639654159202</v>
+        <v>0.006678626993108033</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03178562093703536</v>
+        <v>0.03007678952599292</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>17</v>
@@ -3405,19 +3405,19 @@
         <v>17810</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>10882</v>
+        <v>10630</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>28018</v>
+        <v>28258</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01907922509905654</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01165733750830486</v>
+        <v>0.01138705870662454</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03001446932922284</v>
+        <v>0.03027075460820806</v>
       </c>
     </row>
     <row r="47">
@@ -3434,19 +3434,19 @@
         <v>3738</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>10353</v>
+        <v>10187</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.006967391073973854</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.00207475377890187</v>
+        <v>0.002083379534290315</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01929661354747108</v>
+        <v>0.01898822542472038</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>0</v>
@@ -3468,19 +3468,19 @@
         <v>3738</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>10116</v>
+        <v>11551</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.004004281553729803</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.001191726272070646</v>
+        <v>0.001193873553833097</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01083634500181104</v>
+        <v>0.01237437524429416</v>
       </c>
     </row>
     <row r="48">
@@ -3497,19 +3497,19 @@
         <v>23348</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>14537</v>
+        <v>14135</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>36252</v>
+        <v>34799</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.04351943702783</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.02709702941474277</v>
+        <v>0.026345999445516</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.06757116160083236</v>
+        <v>0.06486268012656432</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>17</v>
@@ -3518,19 +3518,19 @@
         <v>12608</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>7515</v>
+        <v>7366</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>19677</v>
+        <v>19515</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.03175836196779007</v>
+        <v>0.03175836196779006</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.01892976871077904</v>
+        <v>0.01855459964144008</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.04956425391427209</v>
+        <v>0.0491552185275698</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>36</v>
@@ -3539,19 +3539,19 @@
         <v>35956</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>26289</v>
+        <v>25359</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>48850</v>
+        <v>48509</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.03851765758001254</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.02816167212933793</v>
+        <v>0.02716528456540566</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.0523297569222149</v>
+        <v>0.05196489249121292</v>
       </c>
     </row>
     <row r="49">
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>8398</v>
+        <v>8195</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.004560532690527677</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.01565411493120862</v>
+        <v>0.01527477247921357</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>2</v>
@@ -3592,16 +3592,16 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>4610</v>
+        <v>5204</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.003764382932793426</v>
+        <v>0.003764382932793425</v>
       </c>
       <c r="O49" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.01161292222264946</v>
+        <v>0.01310878920485442</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>4</v>
@@ -3610,19 +3610,19 @@
         <v>3941</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>9939</v>
+        <v>9923</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.004221944128232888</v>
+        <v>0.004221944128232887</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.001083135047045064</v>
+        <v>0.001091197604337824</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01064707825042428</v>
+        <v>0.01062965422066411</v>
       </c>
     </row>
     <row r="50">
@@ -3639,19 +3639,19 @@
         <v>15275</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>8491</v>
+        <v>9040</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>24472</v>
+        <v>24858</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.02847266936623765</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01582733001746675</v>
+        <v>0.01685087269658746</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.04561426853239262</v>
+        <v>0.04633430134095965</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>23</v>
@@ -3660,19 +3660,19 @@
         <v>18175</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>11620</v>
+        <v>11652</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>26164</v>
+        <v>27606</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.04578062004141528</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.02926910817339877</v>
+        <v>0.02935101076308371</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.06590357493677595</v>
+        <v>0.06953680890706365</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>37</v>
@@ -3681,19 +3681,19 @@
         <v>33450</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>23600</v>
+        <v>23958</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>46685</v>
+        <v>47621</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.0358334379634111</v>
+        <v>0.03583343796341109</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.02528135986157862</v>
+        <v>0.02566502300416565</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.05001100425703955</v>
+        <v>0.05101313040843317</v>
       </c>
     </row>
     <row r="51">
@@ -3710,19 +3710,19 @@
         <v>357542</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>331798</v>
+        <v>333796</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>379989</v>
+        <v>378679</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.6664399618718047</v>
+        <v>0.6664399618718044</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.6184529712053592</v>
+        <v>0.6221771834879936</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.7082788665339629</v>
+        <v>0.7058366048385258</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>292</v>
@@ -3731,19 +3731,19 @@
         <v>213906</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>197689</v>
+        <v>195269</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>230518</v>
+        <v>232514</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.5388066078659272</v>
+        <v>0.538806607865927</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.4979572729605689</v>
+        <v>0.491863196087712</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.5806500903535622</v>
+        <v>0.5856785656392959</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>604</v>
@@ -3752,19 +3752,19 @@
         <v>571448</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>541154</v>
+        <v>542313</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>600896</v>
+        <v>601087</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.6121597295236879</v>
+        <v>0.6121597295236878</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.5797072954466346</v>
+        <v>0.5809487530169516</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.6437058943565985</v>
+        <v>0.6439097904146758</v>
       </c>
     </row>
     <row r="52">
@@ -3781,19 +3781,19 @@
         <v>7298</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>3339</v>
+        <v>2749</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>14503</v>
+        <v>14903</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.01360260586743062</v>
+        <v>0.01360260586743063</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.006223256351446152</v>
+        <v>0.005124790544306062</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.02703353983226345</v>
+        <v>0.02777895244721006</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>6</v>
@@ -3802,19 +3802,19 @@
         <v>4620</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>1661</v>
+        <v>1556</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>10127</v>
+        <v>9496</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.01163854366312243</v>
+        <v>0.01163854366312242</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.004184126592319261</v>
+        <v>0.003919483879968421</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.02550997409041372</v>
+        <v>0.02392017462805755</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>12</v>
@@ -3823,19 +3823,19 @@
         <v>11918</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>6484</v>
+        <v>6519</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>20530</v>
+        <v>20641</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01276732457574653</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.006945464744540313</v>
+        <v>0.006982972788293016</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.02199243893631049</v>
+        <v>0.02211137276888657</v>
       </c>
     </row>
     <row r="53">
@@ -3852,19 +3852,19 @@
         <v>62559</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>48313</v>
+        <v>48849</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>79922</v>
+        <v>80012</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1166071357838574</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.09005227652647521</v>
+        <v>0.09105237874965562</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.148969528184761</v>
+        <v>0.1491373620974228</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>129</v>
@@ -3873,19 +3873,19 @@
         <v>94754</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>80047</v>
+        <v>80593</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>109891</v>
+        <v>109152</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.2386767979078445</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2016293949801493</v>
+        <v>0.203005444034583</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2768037901658227</v>
+        <v>0.2749427567797245</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>184</v>
@@ -3894,19 +3894,19 @@
         <v>157314</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>136602</v>
+        <v>135999</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>179641</v>
+        <v>180104</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1685212273185905</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1463334236074864</v>
+        <v>0.1456879614594485</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1924387530208451</v>
+        <v>0.1929353572359083</v>
       </c>
     </row>
     <row r="54">
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>7830</v>
+        <v>7157</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.002644717775102866</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.01440544587768364</v>
+        <v>0.01316748378131123</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>7190</v>
+        <v>8541</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.001439644816016963</v>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.007200103406466193</v>
+        <v>0.00855310334163794</v>
       </c>
     </row>
     <row r="56">
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>4637</v>
+        <v>5296</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.001700196384683467</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.008530922849315649</v>
+        <v>0.009744249920288307</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>4665</v>
+        <v>4644</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.0009254972059637377</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.004671477394654953</v>
+        <v>0.00465123894152713</v>
       </c>
     </row>
     <row r="57">
@@ -4124,19 +4124,19 @@
         <v>34294</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>24409</v>
+        <v>24536</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>46669</v>
+        <v>47343</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.06309303446713932</v>
+        <v>0.06309303446713933</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.04490618276194291</v>
+        <v>0.0451408207351699</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.08585959034375298</v>
+        <v>0.08709961889877368</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>66</v>
@@ -4145,19 +4145,19 @@
         <v>36356</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>28788</v>
+        <v>28585</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>45676</v>
+        <v>45438</v>
       </c>
       <c r="N57" s="6" t="n">
-        <v>0.07990665660333165</v>
+        <v>0.07990665660333167</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.06327203835117969</v>
+        <v>0.06282710977667876</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.1003901438708616</v>
+        <v>0.09986710092091665</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>105</v>
@@ -4166,19 +4166,19 @@
         <v>70651</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>58718</v>
+        <v>58270</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>85225</v>
+        <v>86020</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.07075420783367196</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.05880410729113913</v>
+        <v>0.05835560923734071</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.08534996453448011</v>
+        <v>0.08614614719817658</v>
       </c>
     </row>
     <row r="58">
@@ -4195,19 +4195,19 @@
         <v>11209</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>5625</v>
+        <v>5611</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>19726</v>
+        <v>20109</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.02062135923519508</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.01034802667939842</v>
+        <v>0.01032327304738766</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.03629118961314024</v>
+        <v>0.03699503204513205</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>24</v>
@@ -4216,19 +4216,19 @@
         <v>17736</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>11225</v>
+        <v>11893</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>25129</v>
+        <v>25374</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.03898084036896387</v>
+        <v>0.03898084036896386</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.02467151482397491</v>
+        <v>0.02614000962680577</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.05523016650386769</v>
+        <v>0.05576896872866337</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>34</v>
@@ -4237,19 +4237,19 @@
         <v>28944</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>20120</v>
+        <v>20783</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>41701</v>
+        <v>39515</v>
       </c>
       <c r="U58" s="6" t="n">
-        <v>0.02898690752372354</v>
+        <v>0.02898690752372353</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.02014947900926656</v>
+        <v>0.02081352493719944</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.04176231482228339</v>
+        <v>0.03957334924548286</v>
       </c>
     </row>
     <row r="59">
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>2802</v>
+        <v>3362</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.001520397483135626</v>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.006158642112350736</v>
+        <v>0.007390101153106655</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>1</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>3455</v>
+        <v>3801</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.0006927733126147062</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.003460033029913608</v>
+        <v>0.00380637870491039</v>
       </c>
     </row>
     <row r="61">
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>6075</v>
+        <v>6090</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.003163623064977885</v>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.01117667598230945</v>
+        <v>0.01120447653241986</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>6048</v>
+        <v>5235</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.00172210947731463</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.006057169361501496</v>
+        <v>0.005242512721496154</v>
       </c>
     </row>
     <row r="62">
@@ -4486,19 +4486,19 @@
         <v>10205</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>4493</v>
+        <v>5562</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>19053</v>
+        <v>18361</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.01877467663420032</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.008265697335073511</v>
+        <v>0.0102322099871982</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.03505303848498651</v>
+        <v>0.03377976944344926</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>25</v>
@@ -4507,19 +4507,19 @@
         <v>17702</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>11682</v>
+        <v>11964</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>24547</v>
+        <v>26004</v>
       </c>
       <c r="N63" s="6" t="n">
-        <v>0.0389068973805411</v>
+        <v>0.03890689738054111</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.02567488106811107</v>
+        <v>0.02629644388314916</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.05395107931185541</v>
+        <v>0.05715278794787433</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>34</v>
@@ -4528,19 +4528,19 @@
         <v>27907</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>19593</v>
+        <v>20289</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>38844</v>
+        <v>38473</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.02794797862360441</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.01962215654488758</v>
+        <v>0.02031855124513053</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.03890118382975751</v>
+        <v>0.0385296244155908</v>
       </c>
     </row>
     <row r="64">
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>7043</v>
+        <v>7175</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.004004227514569544</v>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.01295670639753921</v>
+        <v>0.01319956261790512</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>3</v>
@@ -4578,19 +4578,19 @@
         <v>2029</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>5981</v>
+        <v>5851</v>
       </c>
       <c r="N64" s="6" t="n">
-        <v>0.004460460926110995</v>
+        <v>0.004460460926110994</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.001394438402187284</v>
+        <v>0.001380085265740157</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.01314630887490773</v>
+        <v>0.01286030215268845</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>5</v>
@@ -4599,19 +4599,19 @@
         <v>4206</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>1405</v>
+        <v>1333</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>9488</v>
+        <v>9553</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.004212111528680928</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.001407222828888798</v>
+        <v>0.001334933744340821</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.009502337955462627</v>
+        <v>0.009566533117311319</v>
       </c>
     </row>
     <row r="65">
@@ -4628,19 +4628,19 @@
         <v>15477</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>8764</v>
+        <v>8702</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>25422</v>
+        <v>25173</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.0284741591059906</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.0161239438183768</v>
+        <v>0.01600969063256135</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.04677036190067043</v>
+        <v>0.04631301590973427</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>27</v>
@@ -4649,19 +4649,19 @@
         <v>18584</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>12423</v>
+        <v>12881</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>26430</v>
+        <v>27045</v>
       </c>
       <c r="N65" s="6" t="n">
-        <v>0.04084449155410027</v>
+        <v>0.04084449155410026</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.0273047384899886</v>
+        <v>0.02831101112623861</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.0580908279058175</v>
+        <v>0.05944113662561767</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>41</v>
@@ -4670,19 +4670,19 @@
         <v>34061</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>24971</v>
+        <v>24388</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>46037</v>
+        <v>47006</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.0341107352535306</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.02500769971872995</v>
+        <v>0.02442379989640774</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.04610440336726824</v>
+        <v>0.04707478062049667</v>
       </c>
     </row>
     <row r="66">
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>5504</v>
+        <v>3507</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.001575184894509065</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.01012611724599187</v>
+        <v>0.006452767216791339</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>1</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>3939</v>
+        <v>3946</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.001550681765172669</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.008656857890556754</v>
+        <v>0.008672813461548256</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>2</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>5452</v>
+        <v>5510</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.001564019975947905</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.005459743211364465</v>
+        <v>0.005518098136064891</v>
       </c>
     </row>
     <row r="67">
@@ -4770,19 +4770,19 @@
         <v>12237</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>6260</v>
+        <v>6217</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>21053</v>
+        <v>20451</v>
       </c>
       <c r="G67" s="6" t="n">
         <v>0.02251267088176959</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.01151726347202221</v>
+        <v>0.01143804909813442</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.03873304184098194</v>
+        <v>0.03762553534427848</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>28</v>
@@ -4791,19 +4791,19 @@
         <v>19548</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>13381</v>
+        <v>13445</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>27219</v>
+        <v>28412</v>
       </c>
       <c r="N67" s="6" t="n">
         <v>0.04296448358351621</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.02940949336970666</v>
+        <v>0.02955058202431748</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.05982440914942537</v>
+        <v>0.06244641867173432</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>39</v>
@@ -4812,19 +4812,19 @@
         <v>31785</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>22715</v>
+        <v>22518</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>43261</v>
+        <v>43137</v>
       </c>
       <c r="U67" s="6" t="n">
-        <v>0.03183159582838544</v>
+        <v>0.03183159582838543</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.02274856774956476</v>
+        <v>0.02255069581447008</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.0433248362618523</v>
+        <v>0.04320014280186588</v>
       </c>
     </row>
     <row r="68">
@@ -4841,19 +4841,19 @@
         <v>378020</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>356326</v>
+        <v>353196</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>400457</v>
+        <v>398885</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.6954658439444985</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.6555540294317803</v>
+        <v>0.6497950790723288</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.7367432631037181</v>
+        <v>0.733852143541686</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>370</v>
@@ -4862,19 +4862,19 @@
         <v>235883</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>218620</v>
+        <v>218587</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>251778</v>
+        <v>251377</v>
       </c>
       <c r="N68" s="6" t="n">
-        <v>0.5184423081218</v>
+        <v>0.5184423081217999</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.4805003554240241</v>
+        <v>0.4804260866563035</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.5533756548437857</v>
+        <v>0.5524960421328727</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>731</v>
@@ -4883,19 +4883,19 @@
         <v>613904</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>582859</v>
+        <v>587336</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>639683</v>
+        <v>640192</v>
       </c>
       <c r="U68" s="6" t="n">
-        <v>0.6148045808978541</v>
+        <v>0.6148045808978539</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.583714532037076</v>
+        <v>0.5881973761444828</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.6406211411009074</v>
+        <v>0.6411308437695036</v>
       </c>
     </row>
     <row r="69">
@@ -4912,19 +4912,19 @@
         <v>8807</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>4039</v>
+        <v>3962</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>18469</v>
+        <v>16815</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>0.01620237492423264</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>0.007431589517233822</v>
+        <v>0.007289415428893776</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.03397812941556243</v>
+        <v>0.03093585949194361</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>7</v>
@@ -4933,19 +4933,19 @@
         <v>4745</v>
       </c>
       <c r="L69" s="5" t="n">
-        <v>2121</v>
+        <v>2088</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>9602</v>
+        <v>9562</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.01042872809318787</v>
       </c>
       <c r="O69" s="6" t="n">
-        <v>0.004660807359298131</v>
+        <v>0.004589573162394239</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.02110470034777048</v>
+        <v>0.02101619136370153</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>15</v>
@@ -4954,19 +4954,19 @@
         <v>13552</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>7566</v>
+        <v>7836</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>22658</v>
+        <v>22923</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.01357159679852754</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.007577508456623543</v>
+        <v>0.00784763449652057</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.02269113236493182</v>
+        <v>0.02295664369616939</v>
       </c>
     </row>
     <row r="70">
@@ -4983,19 +4983,19 @@
         <v>66187</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>51651</v>
+        <v>50653</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>83003</v>
+        <v>83489</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.1217679311731313</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.0950261711451585</v>
+        <v>0.09318831403174617</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.1527053188943193</v>
+        <v>0.1536003079576671</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>158</v>
@@ -5004,19 +5004,19 @@
         <v>101004</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>88209</v>
+        <v>87600</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>115941</v>
+        <v>115706</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.2219940541201398</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.1938720646464418</v>
+        <v>0.1925339802394449</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.2548232903679236</v>
+        <v>0.2543083237527983</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>219</v>
@@ -5025,19 +5025,19 @@
         <v>167191</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>146450</v>
+        <v>147825</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>191516</v>
+        <v>189347</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.1674362409241637</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.1466653598105853</v>
+        <v>0.1480413949148574</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.1917968433433529</v>
+        <v>0.1896243619537239</v>
       </c>
     </row>
     <row r="71">
@@ -5223,19 +5223,19 @@
         <v>20143</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>13920</v>
+        <v>13868</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>29412</v>
+        <v>28648</v>
       </c>
       <c r="G74" s="6" t="n">
-        <v>0.06152212187853359</v>
+        <v>0.06152212187853357</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.04251603100960799</v>
+        <v>0.04235642933202344</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.08983412389554127</v>
+        <v>0.08749923134902785</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>47</v>
@@ -5244,19 +5244,19 @@
         <v>23740</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>17726</v>
+        <v>17720</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>31479</v>
+        <v>30786</v>
       </c>
       <c r="N74" s="6" t="n">
         <v>0.1020074600335775</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.07616414933164152</v>
+        <v>0.07613780741885016</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.1352591662429475</v>
+        <v>0.1322807109947703</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>74</v>
@@ -5265,19 +5265,19 @@
         <v>43883</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>34319</v>
+        <v>33699</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>55318</v>
+        <v>53175</v>
       </c>
       <c r="U74" s="6" t="n">
         <v>0.07834341057322383</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.06126943569901808</v>
+        <v>0.06016239480925765</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.09875806407605012</v>
+        <v>0.09493253897803931</v>
       </c>
     </row>
     <row r="75">
@@ -5294,19 +5294,19 @@
         <v>10316</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>5517</v>
+        <v>5352</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>18351</v>
+        <v>17289</v>
       </c>
       <c r="G75" s="6" t="n">
-        <v>0.03150790663730106</v>
+        <v>0.03150790663730105</v>
       </c>
       <c r="H75" s="6" t="n">
-        <v>0.01685210058922863</v>
+        <v>0.01634564881744335</v>
       </c>
       <c r="I75" s="6" t="n">
-        <v>0.05604921900625957</v>
+        <v>0.05280586837506367</v>
       </c>
       <c r="J75" s="5" t="n">
         <v>14</v>
@@ -5315,19 +5315,19 @@
         <v>9581</v>
       </c>
       <c r="L75" s="5" t="n">
-        <v>5023</v>
+        <v>5512</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>15467</v>
+        <v>15143</v>
       </c>
       <c r="N75" s="6" t="n">
         <v>0.04116565360189545</v>
       </c>
       <c r="O75" s="6" t="n">
-        <v>0.02158150986742649</v>
+        <v>0.02368393900915331</v>
       </c>
       <c r="P75" s="6" t="n">
-        <v>0.06645780833194451</v>
+        <v>0.06506698986282561</v>
       </c>
       <c r="Q75" s="5" t="n">
         <v>25</v>
@@ -5336,19 +5336,19 @@
         <v>19896</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>12725</v>
+        <v>13751</v>
       </c>
       <c r="T75" s="5" t="n">
-        <v>28467</v>
+        <v>28902</v>
       </c>
       <c r="U75" s="6" t="n">
         <v>0.03552061240277015</v>
       </c>
       <c r="V75" s="6" t="n">
-        <v>0.02271674843211439</v>
+        <v>0.02455009987005</v>
       </c>
       <c r="W75" s="6" t="n">
-        <v>0.05082201537050347</v>
+        <v>0.05159845290515659</v>
       </c>
     </row>
     <row r="76">
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>3861</v>
+        <v>3663</v>
       </c>
       <c r="N79" s="6" t="n">
         <v>0.003107553579961925</v>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.01659170368414205</v>
+        <v>0.01574078244316549</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>1</v>
@@ -5543,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>3407</v>
+        <v>4119</v>
       </c>
       <c r="U79" s="6" t="n">
         <v>0.001291160165257142</v>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.006082832490807703</v>
+        <v>0.007353427604385065</v>
       </c>
     </row>
     <row r="80">
@@ -5569,19 +5569,19 @@
         <v>10020</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>4816</v>
+        <v>5079</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>17231</v>
+        <v>18280</v>
       </c>
       <c r="G80" s="6" t="n">
-        <v>0.03060331970721385</v>
+        <v>0.03060331970721384</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.01470965653593401</v>
+        <v>0.015511474111256</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.05262837208358759</v>
+        <v>0.05583263021280197</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>9</v>
@@ -5590,19 +5590,19 @@
         <v>5907</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>2746</v>
+        <v>2755</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>10437</v>
+        <v>11084</v>
       </c>
       <c r="N80" s="6" t="n">
         <v>0.02538087195578704</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0.01180101318088122</v>
+        <v>0.01183589994355247</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.0448477193960424</v>
+        <v>0.04762534934585656</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>19</v>
@@ -5611,19 +5611,19 @@
         <v>15927</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>9950</v>
+        <v>9749</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>24474</v>
+        <v>24159</v>
       </c>
       <c r="U80" s="6" t="n">
         <v>0.02843344030585477</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.01776267297615298</v>
+        <v>0.01740525112189488</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.04369260433780835</v>
+        <v>0.04312990727567985</v>
       </c>
     </row>
     <row r="81">
@@ -5687,19 +5687,19 @@
         <v>16693</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>10426</v>
+        <v>9561</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>26690</v>
+        <v>26362</v>
       </c>
       <c r="G82" s="6" t="n">
-        <v>0.05098606953226049</v>
+        <v>0.05098606953226047</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.03184387206486909</v>
+        <v>0.02920093700396054</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.0815186438690578</v>
+        <v>0.08051644007792866</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>24</v>
@@ -5708,19 +5708,19 @@
         <v>14698</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>9545</v>
+        <v>9716</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>21505</v>
+        <v>21445</v>
       </c>
       <c r="N82" s="6" t="n">
-        <v>0.06315292444035381</v>
+        <v>0.06315292444035382</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.04101350414426162</v>
+        <v>0.0417491124903077</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.09240167954223023</v>
+        <v>0.09214607024817743</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>41</v>
@@ -5729,19 +5729,19 @@
         <v>31391</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>22851</v>
+        <v>22127</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>42529</v>
+        <v>41821</v>
       </c>
       <c r="U82" s="6" t="n">
         <v>0.05604128676007927</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.04079534830719266</v>
+        <v>0.03950329457375156</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.07592641261284803</v>
+        <v>0.07466274958539411</v>
       </c>
     </row>
     <row r="83">
@@ -5758,19 +5758,19 @@
         <v>4327</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>1725</v>
+        <v>1592</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>10692</v>
+        <v>9629</v>
       </c>
       <c r="G83" s="6" t="n">
         <v>0.01321474479772483</v>
       </c>
       <c r="H83" s="6" t="n">
-        <v>0.005270056851294624</v>
+        <v>0.004862684642230331</v>
       </c>
       <c r="I83" s="6" t="n">
-        <v>0.03265606807498715</v>
+        <v>0.02941020652435181</v>
       </c>
       <c r="J83" s="5" t="n">
         <v>0</v>
@@ -5792,19 +5792,19 @@
         <v>4327</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="T83" s="5" t="n">
-        <v>9257</v>
+        <v>9559</v>
       </c>
       <c r="U83" s="6" t="n">
         <v>0.007724138879653931</v>
       </c>
       <c r="V83" s="6" t="n">
-        <v>0.002854142937492371</v>
+        <v>0.002850171283171799</v>
       </c>
       <c r="W83" s="6" t="n">
-        <v>0.01652703180113682</v>
+        <v>0.01706533805662587</v>
       </c>
     </row>
     <row r="84">
@@ -5821,19 +5821,19 @@
         <v>11632</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>6063</v>
+        <v>6722</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>18628</v>
+        <v>19221</v>
       </c>
       <c r="G84" s="6" t="n">
-        <v>0.03552680436570902</v>
+        <v>0.03552680436570901</v>
       </c>
       <c r="H84" s="6" t="n">
-        <v>0.01851750210558661</v>
+        <v>0.02053083017701752</v>
       </c>
       <c r="I84" s="6" t="n">
-        <v>0.05689492071003847</v>
+        <v>0.05870552421787255</v>
       </c>
       <c r="J84" s="5" t="n">
         <v>17</v>
@@ -5842,19 +5842,19 @@
         <v>11541</v>
       </c>
       <c r="L84" s="5" t="n">
-        <v>7064</v>
+        <v>6880</v>
       </c>
       <c r="M84" s="5" t="n">
-        <v>17659</v>
+        <v>18590</v>
       </c>
       <c r="N84" s="6" t="n">
-        <v>0.04958960092347644</v>
+        <v>0.04958960092347643</v>
       </c>
       <c r="O84" s="6" t="n">
-        <v>0.03035167736289002</v>
+        <v>0.02956329586286396</v>
       </c>
       <c r="P84" s="6" t="n">
-        <v>0.07587602520476007</v>
+        <v>0.07987928301258462</v>
       </c>
       <c r="Q84" s="5" t="n">
         <v>30</v>
@@ -5863,19 +5863,19 @@
         <v>23173</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>15907</v>
+        <v>15894</v>
       </c>
       <c r="T84" s="5" t="n">
-        <v>33131</v>
+        <v>31313</v>
       </c>
       <c r="U84" s="6" t="n">
         <v>0.04136976805411854</v>
       </c>
       <c r="V84" s="6" t="n">
-        <v>0.02839911924358169</v>
+        <v>0.02837506606906066</v>
       </c>
       <c r="W84" s="6" t="n">
-        <v>0.0591485466470532</v>
+        <v>0.05590310033510763</v>
       </c>
     </row>
     <row r="85">
@@ -5892,19 +5892,19 @@
         <v>197220</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>179128</v>
+        <v>180101</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>213385</v>
+        <v>214092</v>
       </c>
       <c r="G85" s="6" t="n">
-        <v>0.6023701510393186</v>
+        <v>0.6023701510393185</v>
       </c>
       <c r="H85" s="6" t="n">
-        <v>0.5471119559511601</v>
+        <v>0.5500834892552656</v>
       </c>
       <c r="I85" s="6" t="n">
-        <v>0.6517451778715482</v>
+        <v>0.6539029374199689</v>
       </c>
       <c r="J85" s="5" t="n">
         <v>156</v>
@@ -5913,19 +5913,19 @@
         <v>94020</v>
       </c>
       <c r="L85" s="5" t="n">
-        <v>83245</v>
+        <v>82683</v>
       </c>
       <c r="M85" s="5" t="n">
-        <v>105904</v>
+        <v>105981</v>
       </c>
       <c r="N85" s="6" t="n">
-        <v>0.4039830778282675</v>
+        <v>0.4039830778282674</v>
       </c>
       <c r="O85" s="6" t="n">
-        <v>0.3576876231774092</v>
+        <v>0.3552706078424233</v>
       </c>
       <c r="P85" s="6" t="n">
-        <v>0.455048460433831</v>
+        <v>0.4553791537521308</v>
       </c>
       <c r="Q85" s="5" t="n">
         <v>367</v>
@@ -5934,19 +5934,19 @@
         <v>291239</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>271400</v>
+        <v>268862</v>
       </c>
       <c r="T85" s="5" t="n">
-        <v>312829</v>
+        <v>310408</v>
       </c>
       <c r="U85" s="6" t="n">
         <v>0.5199421318142405</v>
       </c>
       <c r="V85" s="6" t="n">
-        <v>0.4845243259387567</v>
+        <v>0.4799919717532929</v>
       </c>
       <c r="W85" s="6" t="n">
-        <v>0.5584857237639623</v>
+        <v>0.5541629322491806</v>
       </c>
     </row>
     <row r="86">
@@ -5963,19 +5963,19 @@
         <v>2905</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>8609</v>
+        <v>6955</v>
       </c>
       <c r="G86" s="6" t="n">
-        <v>0.008871723576287715</v>
+        <v>0.008871723576287712</v>
       </c>
       <c r="H86" s="6" t="n">
-        <v>0.002885783292674823</v>
+        <v>0.002870658032011857</v>
       </c>
       <c r="I86" s="6" t="n">
-        <v>0.02629320711906639</v>
+        <v>0.0212434104584092</v>
       </c>
       <c r="J86" s="5" t="n">
         <v>1</v>
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="5" t="n">
-        <v>3522</v>
+        <v>3544</v>
       </c>
       <c r="N86" s="6" t="n">
         <v>0.003042905457114229</v>
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="P86" s="6" t="n">
-        <v>0.01513458127642569</v>
+        <v>0.01522748621535223</v>
       </c>
       <c r="Q86" s="5" t="n">
         <v>4</v>
@@ -6005,19 +6005,19 @@
         <v>3613</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="T86" s="5" t="n">
-        <v>8315</v>
+        <v>8879</v>
       </c>
       <c r="U86" s="6" t="n">
         <v>0.006449902818462494</v>
       </c>
       <c r="V86" s="6" t="n">
-        <v>0.001699922688332461</v>
+        <v>0.001708594322718402</v>
       </c>
       <c r="W86" s="6" t="n">
-        <v>0.0148447677355774</v>
+        <v>0.01585056769499932</v>
       </c>
     </row>
     <row r="87">
@@ -6034,19 +6034,19 @@
         <v>54152</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>43226</v>
+        <v>42060</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>68539</v>
+        <v>67534</v>
       </c>
       <c r="G87" s="6" t="n">
-        <v>0.165397158465651</v>
+        <v>0.1653971584656509</v>
       </c>
       <c r="H87" s="6" t="n">
-        <v>0.1320245732868581</v>
+        <v>0.12846454092558</v>
       </c>
       <c r="I87" s="6" t="n">
-        <v>0.209340967941779</v>
+        <v>0.2062705583276131</v>
       </c>
       <c r="J87" s="5" t="n">
         <v>119</v>
@@ -6055,19 +6055,19 @@
         <v>71814</v>
       </c>
       <c r="L87" s="5" t="n">
-        <v>61616</v>
+        <v>60949</v>
       </c>
       <c r="M87" s="5" t="n">
-        <v>83506</v>
+        <v>82890</v>
       </c>
       <c r="N87" s="6" t="n">
         <v>0.3085699521795661</v>
       </c>
       <c r="O87" s="6" t="n">
-        <v>0.2647503937903111</v>
+        <v>0.2618856926921</v>
       </c>
       <c r="P87" s="6" t="n">
-        <v>0.3588075044390198</v>
+        <v>0.3561587947065758</v>
       </c>
       <c r="Q87" s="5" t="n">
         <v>177</v>
@@ -6076,19 +6076,19 @@
         <v>125966</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>111176</v>
+        <v>111327</v>
       </c>
       <c r="T87" s="5" t="n">
-        <v>145421</v>
+        <v>145200</v>
       </c>
       <c r="U87" s="6" t="n">
         <v>0.2248841482263393</v>
       </c>
       <c r="V87" s="6" t="n">
-        <v>0.1984796625852902</v>
+        <v>0.1987488573413932</v>
       </c>
       <c r="W87" s="6" t="n">
-        <v>0.2596155411609858</v>
+        <v>0.2592222547193346</v>
       </c>
     </row>
     <row r="88">
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>6383</v>
+        <v>5841</v>
       </c>
       <c r="G89" s="6" t="n">
         <v>0.0007533493672308719</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="6" t="n">
-        <v>0.003345128626098545</v>
+        <v>0.003060882984053997</v>
       </c>
       <c r="J89" s="5" t="n">
         <v>0</v>
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="T89" s="5" t="n">
-        <v>8370</v>
+        <v>8651</v>
       </c>
       <c r="U89" s="6" t="n">
         <v>0.0004228330204170084</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="W89" s="6" t="n">
-        <v>0.002461784613020161</v>
+        <v>0.002544730214709033</v>
       </c>
     </row>
     <row r="90">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>4616</v>
+        <v>4617</v>
       </c>
       <c r="G90" s="6" t="n">
         <v>0.0004843019102556936</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="6" t="n">
-        <v>0.002419153882571974</v>
+        <v>0.002419636429034344</v>
       </c>
       <c r="J90" s="5" t="n">
         <v>1</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="5" t="n">
-        <v>4727</v>
+        <v>4186</v>
       </c>
       <c r="N90" s="6" t="n">
         <v>0.0006237125233847015</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="P90" s="6" t="n">
-        <v>0.003169060083807105</v>
+        <v>0.002806099666356282</v>
       </c>
       <c r="Q90" s="5" t="n">
         <v>2</v>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="T90" s="5" t="n">
-        <v>6553</v>
+        <v>5590</v>
       </c>
       <c r="U90" s="6" t="n">
         <v>0.0005454654136218013</v>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="W90" s="6" t="n">
-        <v>0.001927584100244472</v>
+        <v>0.001644171361715001</v>
       </c>
     </row>
     <row r="91">
@@ -6314,19 +6314,19 @@
         <v>105956</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>87556</v>
+        <v>85679</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>129078</v>
+        <v>125950</v>
       </c>
       <c r="G91" s="6" t="n">
         <v>0.0555270863681273</v>
       </c>
       <c r="H91" s="6" t="n">
-        <v>0.04588419620655527</v>
+        <v>0.0449006781094641</v>
       </c>
       <c r="I91" s="6" t="n">
-        <v>0.0676440131910138</v>
+        <v>0.06600494272110805</v>
       </c>
       <c r="J91" s="5" t="n">
         <v>198</v>
@@ -6335,19 +6335,19 @@
         <v>123988</v>
       </c>
       <c r="L91" s="5" t="n">
-        <v>106650</v>
+        <v>107939</v>
       </c>
       <c r="M91" s="5" t="n">
-        <v>142891</v>
+        <v>143391</v>
       </c>
       <c r="N91" s="6" t="n">
-        <v>0.08312521408994712</v>
+        <v>0.08312521408994711</v>
       </c>
       <c r="O91" s="6" t="n">
-        <v>0.07150143616802603</v>
+        <v>0.07236554565664609</v>
       </c>
       <c r="P91" s="6" t="n">
-        <v>0.09579844616068856</v>
+        <v>0.09613390195291768</v>
       </c>
       <c r="Q91" s="5" t="n">
         <v>312</v>
@@ -6356,19 +6356,19 @@
         <v>229944</v>
       </c>
       <c r="S91" s="5" t="n">
-        <v>204096</v>
+        <v>205107</v>
       </c>
       <c r="T91" s="5" t="n">
-        <v>258070</v>
+        <v>260759</v>
       </c>
       <c r="U91" s="6" t="n">
         <v>0.06763519019125414</v>
       </c>
       <c r="V91" s="6" t="n">
-        <v>0.06003232664336567</v>
+        <v>0.06032962053270939</v>
       </c>
       <c r="W91" s="6" t="n">
-        <v>0.07590805344521587</v>
+        <v>0.0766990721456845</v>
       </c>
     </row>
     <row r="92">
@@ -6385,19 +6385,19 @@
         <v>53654</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>38774</v>
+        <v>38292</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>71335</v>
+        <v>70335</v>
       </c>
       <c r="G92" s="6" t="n">
         <v>0.02811793879668906</v>
       </c>
       <c r="H92" s="6" t="n">
-        <v>0.02031950396744905</v>
+        <v>0.0200669504643292</v>
       </c>
       <c r="I92" s="6" t="n">
-        <v>0.03738335438731919</v>
+        <v>0.03685945822248453</v>
       </c>
       <c r="J92" s="5" t="n">
         <v>66</v>
@@ -6406,19 +6406,19 @@
         <v>56045</v>
       </c>
       <c r="L92" s="5" t="n">
-        <v>43395</v>
+        <v>43333</v>
       </c>
       <c r="M92" s="5" t="n">
-        <v>71054</v>
+        <v>69922</v>
       </c>
       <c r="N92" s="6" t="n">
         <v>0.03757434370539174</v>
       </c>
       <c r="O92" s="6" t="n">
-        <v>0.02909304598142287</v>
+        <v>0.02905198174566065</v>
       </c>
       <c r="P92" s="6" t="n">
-        <v>0.04763679690184943</v>
+        <v>0.04687769873170473</v>
       </c>
       <c r="Q92" s="5" t="n">
         <v>112</v>
@@ -6427,19 +6427,19 @@
         <v>109700</v>
       </c>
       <c r="S92" s="5" t="n">
-        <v>90524</v>
+        <v>89317</v>
       </c>
       <c r="T92" s="5" t="n">
-        <v>134624</v>
+        <v>133516</v>
       </c>
       <c r="U92" s="6" t="n">
         <v>0.03226673952629697</v>
       </c>
       <c r="V92" s="6" t="n">
-        <v>0.02662662098203059</v>
+        <v>0.02627156744302847</v>
       </c>
       <c r="W92" s="6" t="n">
-        <v>0.03959806576331179</v>
+        <v>0.03927202686413204</v>
       </c>
     </row>
     <row r="93">
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>9993</v>
+        <v>9414</v>
       </c>
       <c r="G93" s="6" t="n">
         <v>0.000989640210146101</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="6" t="n">
-        <v>0.005236768397859587</v>
+        <v>0.004933503747398395</v>
       </c>
       <c r="J93" s="5" t="n">
         <v>1</v>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="5" t="n">
-        <v>4031</v>
+        <v>4496</v>
       </c>
       <c r="N93" s="6" t="n">
         <v>0.000539305323750145</v>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="P93" s="6" t="n">
-        <v>0.002702481347599936</v>
+        <v>0.003014588583077359</v>
       </c>
       <c r="Q93" s="5" t="n">
         <v>2</v>
@@ -6501,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="T93" s="5" t="n">
-        <v>11285</v>
+        <v>11048</v>
       </c>
       <c r="U93" s="6" t="n">
         <v>0.0007920651566997322</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="W93" s="6" t="n">
-        <v>0.003319216044846755</v>
+        <v>0.00324962232498112</v>
       </c>
     </row>
     <row r="94">
@@ -6543,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="5" t="n">
-        <v>4767</v>
+        <v>4758</v>
       </c>
       <c r="N94" s="6" t="n">
         <v>0.0009143672508223271</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="6" t="n">
-        <v>0.003195855075073584</v>
+        <v>0.003189622802664767</v>
       </c>
       <c r="Q94" s="5" t="n">
         <v>2</v>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="T94" s="5" t="n">
-        <v>4763</v>
+        <v>4830</v>
       </c>
       <c r="U94" s="6" t="n">
         <v>0.0004011595901366368</v>
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="W94" s="6" t="n">
-        <v>0.00140111193065582</v>
+        <v>0.001420781756225012</v>
       </c>
     </row>
     <row r="95">
@@ -6590,19 +6590,19 @@
         <v>4687</v>
       </c>
       <c r="E95" s="5" t="n">
-        <v>1746</v>
+        <v>1785</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>10227</v>
+        <v>10696</v>
       </c>
       <c r="G95" s="6" t="n">
         <v>0.002456226246637899</v>
       </c>
       <c r="H95" s="6" t="n">
-        <v>0.0009152177032405888</v>
+        <v>0.000935242975448307</v>
       </c>
       <c r="I95" s="6" t="n">
-        <v>0.005359277691246896</v>
+        <v>0.005605268935108911</v>
       </c>
       <c r="J95" s="5" t="n">
         <v>0</v>
@@ -6624,19 +6624,19 @@
         <v>4687</v>
       </c>
       <c r="S95" s="5" t="n">
-        <v>1709</v>
+        <v>1770</v>
       </c>
       <c r="T95" s="5" t="n">
-        <v>10308</v>
+        <v>11098</v>
       </c>
       <c r="U95" s="6" t="n">
         <v>0.001378608130396362</v>
       </c>
       <c r="V95" s="6" t="n">
-        <v>0.0005028111168970057</v>
+        <v>0.0005207319962175456</v>
       </c>
       <c r="W95" s="6" t="n">
-        <v>0.003031912333050081</v>
+        <v>0.003264236215723551</v>
       </c>
     </row>
     <row r="96">
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="5" t="n">
-        <v>13255</v>
+        <v>14423</v>
       </c>
       <c r="G96" s="6" t="n">
         <v>0.001381921929703483</v>
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="6" t="n">
-        <v>0.006946510521555434</v>
+        <v>0.007558236308118927</v>
       </c>
       <c r="J96" s="5" t="n">
         <v>1</v>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="5" t="n">
-        <v>3651</v>
+        <v>3628</v>
       </c>
       <c r="N96" s="6" t="n">
         <v>0.0004848740117390437</v>
@@ -6686,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="6" t="n">
-        <v>0.002447850890255213</v>
+        <v>0.002432477805070749</v>
       </c>
       <c r="Q96" s="5" t="n">
         <v>2</v>
@@ -6695,19 +6695,19 @@
         <v>3360</v>
       </c>
       <c r="S96" s="5" t="n">
-        <v>713</v>
+        <v>0</v>
       </c>
       <c r="T96" s="5" t="n">
-        <v>15247</v>
+        <v>13982</v>
       </c>
       <c r="U96" s="6" t="n">
         <v>0.0009883608361932969</v>
       </c>
       <c r="V96" s="6" t="n">
-        <v>0.0002095999047186226</v>
+        <v>0</v>
       </c>
       <c r="W96" s="6" t="n">
-        <v>0.004484780447897122</v>
+        <v>0.004112662427577492</v>
       </c>
     </row>
     <row r="97">
@@ -6724,19 +6724,19 @@
         <v>41276</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>28245</v>
+        <v>27897</v>
       </c>
       <c r="F97" s="5" t="n">
-        <v>57426</v>
+        <v>57355</v>
       </c>
       <c r="G97" s="6" t="n">
         <v>0.02163073153091076</v>
       </c>
       <c r="H97" s="6" t="n">
-        <v>0.01480178119310365</v>
+        <v>0.01461938894393643</v>
       </c>
       <c r="I97" s="6" t="n">
-        <v>0.0300944382513367</v>
+        <v>0.0300573063295733</v>
       </c>
       <c r="J97" s="5" t="n">
         <v>49</v>
@@ -6745,19 +6745,19 @@
         <v>38810</v>
       </c>
       <c r="L97" s="5" t="n">
-        <v>29086</v>
+        <v>28707</v>
       </c>
       <c r="M97" s="5" t="n">
-        <v>51021</v>
+        <v>50774</v>
       </c>
       <c r="N97" s="6" t="n">
         <v>0.02601951593696163</v>
       </c>
       <c r="O97" s="6" t="n">
-        <v>0.01950041263847737</v>
+        <v>0.01924629948363806</v>
       </c>
       <c r="P97" s="6" t="n">
-        <v>0.03420633523116256</v>
+        <v>0.0340403974528447</v>
       </c>
       <c r="Q97" s="5" t="n">
         <v>82</v>
@@ -6766,19 +6766,19 @@
         <v>80086</v>
       </c>
       <c r="S97" s="5" t="n">
-        <v>63516</v>
+        <v>63265</v>
       </c>
       <c r="T97" s="5" t="n">
-        <v>100827</v>
+        <v>100034</v>
       </c>
       <c r="U97" s="6" t="n">
-        <v>0.02355621929520465</v>
+        <v>0.02355621929520464</v>
       </c>
       <c r="V97" s="6" t="n">
-        <v>0.01868240867532859</v>
+        <v>0.0186087371482214</v>
       </c>
       <c r="W97" s="6" t="n">
-        <v>0.02965695667125414</v>
+        <v>0.02942380843506302</v>
       </c>
     </row>
     <row r="98">
@@ -6795,19 +6795,19 @@
         <v>7780</v>
       </c>
       <c r="E98" s="5" t="n">
-        <v>3269</v>
+        <v>2803</v>
       </c>
       <c r="F98" s="5" t="n">
-        <v>17701</v>
+        <v>16992</v>
       </c>
       <c r="G98" s="6" t="n">
         <v>0.004077310640838517</v>
       </c>
       <c r="H98" s="6" t="n">
-        <v>0.001713057179654434</v>
+        <v>0.00146908249418799</v>
       </c>
       <c r="I98" s="6" t="n">
-        <v>0.00927607287551587</v>
+        <v>0.008904749073002325</v>
       </c>
       <c r="J98" s="5" t="n">
         <v>5</v>
@@ -6816,19 +6816,19 @@
         <v>4612</v>
       </c>
       <c r="L98" s="5" t="n">
-        <v>1401</v>
+        <v>1453</v>
       </c>
       <c r="M98" s="5" t="n">
-        <v>10948</v>
+        <v>11188</v>
       </c>
       <c r="N98" s="6" t="n">
         <v>0.003091774172418752</v>
       </c>
       <c r="O98" s="6" t="n">
-        <v>0.0009394075575211496</v>
+        <v>0.0009744229449431329</v>
       </c>
       <c r="P98" s="6" t="n">
-        <v>0.007339906857598577</v>
+        <v>0.00750106152678757</v>
       </c>
       <c r="Q98" s="5" t="n">
         <v>11</v>
@@ -6837,19 +6837,19 @@
         <v>12392</v>
       </c>
       <c r="S98" s="5" t="n">
-        <v>6486</v>
+        <v>5980</v>
       </c>
       <c r="T98" s="5" t="n">
-        <v>21898</v>
+        <v>21793</v>
       </c>
       <c r="U98" s="6" t="n">
-        <v>0.003644927038538216</v>
+        <v>0.003644927038538215</v>
       </c>
       <c r="V98" s="6" t="n">
-        <v>0.001907693292820248</v>
+        <v>0.001759080470463198</v>
       </c>
       <c r="W98" s="6" t="n">
-        <v>0.006440952217933121</v>
+        <v>0.006410039260799198</v>
       </c>
     </row>
     <row r="99">
@@ -6866,19 +6866,19 @@
         <v>82649</v>
       </c>
       <c r="E99" s="5" t="n">
-        <v>62516</v>
+        <v>64100</v>
       </c>
       <c r="F99" s="5" t="n">
-        <v>103234</v>
+        <v>104062</v>
       </c>
       <c r="G99" s="6" t="n">
         <v>0.04331269666948536</v>
       </c>
       <c r="H99" s="6" t="n">
-        <v>0.0327618210240669</v>
+        <v>0.03359209477268975</v>
       </c>
       <c r="I99" s="6" t="n">
-        <v>0.0541002334825437</v>
+        <v>0.05453442881157914</v>
       </c>
       <c r="J99" s="5" t="n">
         <v>80</v>
@@ -6887,19 +6887,19 @@
         <v>60229</v>
       </c>
       <c r="L99" s="5" t="n">
-        <v>47608</v>
+        <v>47560</v>
       </c>
       <c r="M99" s="5" t="n">
-        <v>75034</v>
+        <v>75622</v>
       </c>
       <c r="N99" s="6" t="n">
-        <v>0.04037911672225471</v>
+        <v>0.0403791167222547</v>
       </c>
       <c r="O99" s="6" t="n">
-        <v>0.0319181346528153</v>
+        <v>0.03188565203714237</v>
       </c>
       <c r="P99" s="6" t="n">
-        <v>0.05030514510694439</v>
+        <v>0.05069908798520172</v>
       </c>
       <c r="Q99" s="5" t="n">
         <v>145</v>
@@ -6908,19 +6908,19 @@
         <v>142878</v>
       </c>
       <c r="S99" s="5" t="n">
-        <v>121026</v>
+        <v>118022</v>
       </c>
       <c r="T99" s="5" t="n">
-        <v>171471</v>
+        <v>169225</v>
       </c>
       <c r="U99" s="6" t="n">
         <v>0.04202564955771957</v>
       </c>
       <c r="V99" s="6" t="n">
-        <v>0.03559841553117537</v>
+        <v>0.03471456142359493</v>
       </c>
       <c r="W99" s="6" t="n">
-        <v>0.05043605849240512</v>
+        <v>0.04977553137755164</v>
       </c>
     </row>
     <row r="100">
@@ -6937,19 +6937,19 @@
         <v>11499</v>
       </c>
       <c r="E100" s="5" t="n">
-        <v>5816</v>
+        <v>6301</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>19910</v>
+        <v>21117</v>
       </c>
       <c r="G100" s="6" t="n">
         <v>0.006025931359647398</v>
       </c>
       <c r="H100" s="6" t="n">
-        <v>0.003047936286165074</v>
+        <v>0.003301980101589122</v>
       </c>
       <c r="I100" s="6" t="n">
-        <v>0.01043390915926599</v>
+        <v>0.01106658083194452</v>
       </c>
       <c r="J100" s="5" t="n">
         <v>7</v>
@@ -6958,19 +6958,19 @@
         <v>8333</v>
       </c>
       <c r="L100" s="5" t="n">
-        <v>2904</v>
+        <v>3720</v>
       </c>
       <c r="M100" s="5" t="n">
-        <v>17617</v>
+        <v>20156</v>
       </c>
       <c r="N100" s="6" t="n">
         <v>0.005587004700473745</v>
       </c>
       <c r="O100" s="6" t="n">
-        <v>0.001946880294739444</v>
+        <v>0.002494089978282378</v>
       </c>
       <c r="P100" s="6" t="n">
-        <v>0.01181067140800647</v>
+        <v>0.01351311192698552</v>
       </c>
       <c r="Q100" s="5" t="n">
         <v>18</v>
@@ -6979,19 +6979,19 @@
         <v>19832</v>
       </c>
       <c r="S100" s="5" t="n">
-        <v>11854</v>
+        <v>12231</v>
       </c>
       <c r="T100" s="5" t="n">
-        <v>31679</v>
+        <v>32342</v>
       </c>
       <c r="U100" s="6" t="n">
         <v>0.005833361428325175</v>
       </c>
       <c r="V100" s="6" t="n">
-        <v>0.003486831973125311</v>
+        <v>0.003597730671120454</v>
       </c>
       <c r="W100" s="6" t="n">
-        <v>0.009318024651121734</v>
+        <v>0.009513136536318075</v>
       </c>
     </row>
     <row r="101">
@@ -7008,19 +7008,19 @@
         <v>60177</v>
       </c>
       <c r="E101" s="5" t="n">
-        <v>46179</v>
+        <v>46281</v>
       </c>
       <c r="F101" s="5" t="n">
-        <v>79057</v>
+        <v>80572</v>
       </c>
       <c r="G101" s="6" t="n">
         <v>0.03153621291639932</v>
       </c>
       <c r="H101" s="6" t="n">
-        <v>0.02420052107303319</v>
+        <v>0.02425404139426754</v>
       </c>
       <c r="I101" s="6" t="n">
-        <v>0.04143043280049689</v>
+        <v>0.04222413672694875</v>
       </c>
       <c r="J101" s="5" t="n">
         <v>88</v>
@@ -7029,19 +7029,19 @@
         <v>74879</v>
       </c>
       <c r="L101" s="5" t="n">
-        <v>60914</v>
+        <v>59791</v>
       </c>
       <c r="M101" s="5" t="n">
-        <v>94834</v>
+        <v>91745</v>
       </c>
       <c r="N101" s="6" t="n">
         <v>0.05020137618890151</v>
       </c>
       <c r="O101" s="6" t="n">
-        <v>0.04083843398436664</v>
+        <v>0.04008593994289062</v>
       </c>
       <c r="P101" s="6" t="n">
-        <v>0.06357983552221939</v>
+        <v>0.06150887936584278</v>
       </c>
       <c r="Q101" s="5" t="n">
         <v>139</v>
@@ -7050,19 +7050,19 @@
         <v>135056</v>
       </c>
       <c r="S101" s="5" t="n">
-        <v>111918</v>
+        <v>113443</v>
       </c>
       <c r="T101" s="5" t="n">
-        <v>160835</v>
+        <v>161386</v>
       </c>
       <c r="U101" s="6" t="n">
         <v>0.03972516461113291</v>
       </c>
       <c r="V101" s="6" t="n">
-        <v>0.032919239826386</v>
+        <v>0.03336772084123455</v>
       </c>
       <c r="W101" s="6" t="n">
-        <v>0.04730769450822058</v>
+        <v>0.047469801189612</v>
       </c>
     </row>
     <row r="102">
@@ -7079,19 +7079,19 @@
         <v>1239059</v>
       </c>
       <c r="E102" s="5" t="n">
-        <v>1194261</v>
+        <v>1191053</v>
       </c>
       <c r="F102" s="5" t="n">
-        <v>1287316</v>
+        <v>1286108</v>
       </c>
       <c r="G102" s="6" t="n">
         <v>0.6493367682937975</v>
       </c>
       <c r="H102" s="6" t="n">
-        <v>0.6258601665981331</v>
+        <v>0.624178814034664</v>
       </c>
       <c r="I102" s="6" t="n">
-        <v>0.6746258628137118</v>
+        <v>0.6739929145528668</v>
       </c>
       <c r="J102" s="5" t="n">
         <v>989</v>
@@ -7100,19 +7100,19 @@
         <v>744024</v>
       </c>
       <c r="L102" s="5" t="n">
-        <v>710665</v>
+        <v>709435</v>
       </c>
       <c r="M102" s="5" t="n">
-        <v>775852</v>
+        <v>779880</v>
       </c>
       <c r="N102" s="6" t="n">
-        <v>0.4988164917874402</v>
+        <v>0.4988164917874403</v>
       </c>
       <c r="O102" s="6" t="n">
-        <v>0.4764513489229471</v>
+        <v>0.4756271569787797</v>
       </c>
       <c r="P102" s="6" t="n">
-        <v>0.5201551287963357</v>
+        <v>0.5228550265815584</v>
       </c>
       <c r="Q102" s="5" t="n">
         <v>2054</v>
@@ -7121,19 +7121,19 @@
         <v>1983083</v>
       </c>
       <c r="S102" s="5" t="n">
-        <v>1928611</v>
+        <v>1920472</v>
       </c>
       <c r="T102" s="5" t="n">
-        <v>2042512</v>
+        <v>2041267</v>
       </c>
       <c r="U102" s="6" t="n">
         <v>0.583299131473101</v>
       </c>
       <c r="V102" s="6" t="n">
-        <v>0.5672767420409044</v>
+        <v>0.5648827923561441</v>
       </c>
       <c r="W102" s="6" t="n">
-        <v>0.6007793410170195</v>
+        <v>0.6004131431703745</v>
       </c>
     </row>
     <row r="103">
@@ -7150,19 +7150,19 @@
         <v>28337</v>
       </c>
       <c r="E103" s="5" t="n">
-        <v>18525</v>
+        <v>16568</v>
       </c>
       <c r="F103" s="5" t="n">
-        <v>47587</v>
+        <v>48019</v>
       </c>
       <c r="G103" s="6" t="n">
         <v>0.01484998779274781</v>
       </c>
       <c r="H103" s="6" t="n">
-        <v>0.009708147919668524</v>
+        <v>0.00868273380238095</v>
       </c>
       <c r="I103" s="6" t="n">
-        <v>0.02493827457342413</v>
+        <v>0.02516465693457881</v>
       </c>
       <c r="J103" s="5" t="n">
         <v>19</v>
@@ -7171,19 +7171,19 @@
         <v>14915</v>
       </c>
       <c r="L103" s="5" t="n">
-        <v>9160</v>
+        <v>9482</v>
       </c>
       <c r="M103" s="5" t="n">
-        <v>23427</v>
+        <v>22872</v>
       </c>
       <c r="N103" s="6" t="n">
         <v>0.009999160958289588</v>
       </c>
       <c r="O103" s="6" t="n">
-        <v>0.006141158572802665</v>
+        <v>0.006357285158922346</v>
       </c>
       <c r="P103" s="6" t="n">
-        <v>0.01570590680158074</v>
+        <v>0.01533404487574988</v>
       </c>
       <c r="Q103" s="5" t="n">
         <v>39</v>
@@ -7192,19 +7192,19 @@
         <v>43251</v>
       </c>
       <c r="S103" s="5" t="n">
-        <v>28930</v>
+        <v>30437</v>
       </c>
       <c r="T103" s="5" t="n">
-        <v>60862</v>
+        <v>63277</v>
       </c>
       <c r="U103" s="6" t="n">
         <v>0.01272178853475275</v>
       </c>
       <c r="V103" s="6" t="n">
-        <v>0.008509497883869212</v>
+        <v>0.008952787999073888</v>
       </c>
       <c r="W103" s="6" t="n">
-        <v>0.01790165743667121</v>
+        <v>0.01861206992067943</v>
       </c>
     </row>
     <row r="104">
@@ -7221,19 +7221,19 @@
         <v>266231</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>233007</v>
+        <v>231513</v>
       </c>
       <c r="F104" s="5" t="n">
-        <v>303910</v>
+        <v>300576</v>
       </c>
       <c r="G104" s="6" t="n">
-        <v>0.1395198959673831</v>
+        <v>0.139519895967383</v>
       </c>
       <c r="H104" s="6" t="n">
-        <v>0.1221089489068408</v>
+        <v>0.1213258078623541</v>
       </c>
       <c r="I104" s="6" t="n">
-        <v>0.159265734213992</v>
+        <v>0.1575186268710774</v>
       </c>
       <c r="J104" s="5" t="n">
         <v>490</v>
@@ -7242,19 +7242,19 @@
         <v>361922</v>
       </c>
       <c r="L104" s="5" t="n">
-        <v>331209</v>
+        <v>331016</v>
       </c>
       <c r="M104" s="5" t="n">
-        <v>391098</v>
+        <v>392648</v>
       </c>
       <c r="N104" s="6" t="n">
         <v>0.2426437426282248</v>
       </c>
       <c r="O104" s="6" t="n">
-        <v>0.2220524430321476</v>
+        <v>0.221923271399193</v>
       </c>
       <c r="P104" s="6" t="n">
-        <v>0.2622037448505307</v>
+        <v>0.2632429022339758</v>
       </c>
       <c r="Q104" s="5" t="n">
         <v>714</v>
@@ -7263,19 +7263,19 @@
         <v>628153</v>
       </c>
       <c r="S104" s="5" t="n">
-        <v>582049</v>
+        <v>583687</v>
       </c>
       <c r="T104" s="5" t="n">
-        <v>676066</v>
+        <v>674983</v>
       </c>
       <c r="U104" s="6" t="n">
         <v>0.1847633361962099</v>
       </c>
       <c r="V104" s="6" t="n">
-        <v>0.171202379345446</v>
+        <v>0.1716842459308939</v>
       </c>
       <c r="W104" s="6" t="n">
-        <v>0.198856218037803</v>
+        <v>0.1985377776407279</v>
       </c>
     </row>
     <row r="105">
